--- a/data/trans_dic/P37A$medicootras-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicootras-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.003376360007661282</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.002686808736589983</v>
+        <v>0.002686808736589984</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>0.01175558508454731</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.006051703484326938</v>
+        <v>0.006051703484326939</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.003176966017336563</v>
@@ -721,25 +721,25 @@
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.01149697927830082</v>
+        <v>0.01094066315745405</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.003075613006494332</v>
+        <v>0.003062422620866679</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.001540140457912412</v>
+        <v>0.00151106552148894</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.007658507010036891</v>
+        <v>0.008328425718662874</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.001713802961911584</v>
+        <v>0.001704251943516331</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.001156956129490225</v>
+        <v>0.001157244757618988</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03096654487398764</v>
+        <v>0.03064101670313196</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01779460888342747</v>
+        <v>0.01820925267866881</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01689966377414883</v>
+        <v>0.0170715790351137</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01595421925789309</v>
+        <v>0.01340720375381201</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.06117979986905756</v>
+        <v>0.05475260348063775</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03676839317983582</v>
+        <v>0.03338465107832703</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01795506970706738</v>
+        <v>0.01560763131217999</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01684483825536884</v>
+        <v>0.01584382661373845</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03412620673334309</v>
+        <v>0.03449710049649641</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01912456165564579</v>
+        <v>0.01962390171586889</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01075619139166125</v>
+        <v>0.01082913422604309</v>
       </c>
     </row>
     <row r="7">
@@ -846,13 +846,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002081430467048209</v>
+        <v>0.00209388421165459</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.00427481195681193</v>
+        <v>0.004216977666342634</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001884966777361642</v>
+        <v>0.001899269900033779</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.004669102786747393</v>
+        <v>0.004305136965681971</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001065262199997202</v>
+        <v>0.001064470643238891</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0009665181146930069</v>
+        <v>0.0009727965038415613</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002023484986303459</v>
+        <v>0.002026626380348162</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.005930405884937124</v>
+        <v>0.005933507378779187</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01087186057672943</v>
+        <v>0.01061053792176853</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02619253103572964</v>
+        <v>0.02565874845270417</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02017928029187373</v>
+        <v>0.01878250575784406</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03658859013567974</v>
+        <v>0.03723693645004774</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01731389018079751</v>
+        <v>0.01902907680387176</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01147471513217329</v>
+        <v>0.01336175546508991</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01200019605088437</v>
+        <v>0.01073107452442476</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01792012493134033</v>
+        <v>0.01794091182664976</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01076032061203993</v>
+        <v>0.01087294645055879</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01141732123142705</v>
+        <v>0.01249613745729805</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01139122673164339</v>
+        <v>0.0113424271815243</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02158268533533678</v>
+        <v>0.0207728004480094</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.007093838031403348</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.009059358268881936</v>
+        <v>0.009059358268881934</v>
       </c>
     </row>
     <row r="11">
@@ -983,29 +983,29 @@
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.002756684063080764</v>
+        <v>0.00277740736055977</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005177925034512683</v>
+        <v>0.005428435825392243</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.003135940603999104</v>
+        <v>0.003159739814513684</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.001406464444206099</v>
+        <v>0.001407830142587959</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.002815346600142027</v>
+        <v>0.002683596184741592</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.004325959867278704</v>
+        <v>0.004233079865215587</v>
       </c>
     </row>
     <row r="12">
@@ -1016,36 +1016,36 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01625974052938473</v>
+        <v>0.01598787012635626</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01902642049208734</v>
+        <v>0.01570194144572035</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.02351322862466892</v>
+        <v>0.02761725664765629</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.01905919641720431</v>
+        <v>0.01886924003544935</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03204863591124001</v>
+        <v>0.03017079945397575</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01985416178877548</v>
+        <v>0.01925321612762602</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.006807316122709271</v>
+        <v>0.00676177679207832</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01401092995396271</v>
+        <v>0.01398468230863929</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01608736901117278</v>
+        <v>0.01558432607459988</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01733582112757547</v>
+        <v>0.01722180672974702</v>
       </c>
     </row>
     <row r="13">
@@ -1069,7 +1069,7 @@
         <v>0.01232102236515149</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.008431927118343228</v>
+        <v>0.00843192711834323</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0.01859735444419341</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.01218538338479575</v>
+        <v>0.01218538338479576</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.001161246376138907</v>
@@ -1110,32 +1110,32 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004776622858218121</v>
+        <v>0.004817400933571879</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002284562374259161</v>
+        <v>0.002267877145111401</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.007720596462449141</v>
+        <v>0.007779191272393844</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.003926443459119766</v>
+        <v>0.004054722120635119</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.001517386477319376</v>
+        <v>0.001483012350374154</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.008447529892595826</v>
+        <v>0.007668216696000032</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.004553689110526678</v>
+        <v>0.004827122407885799</v>
       </c>
     </row>
     <row r="15">
@@ -1146,38 +1146,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01253560691986817</v>
+        <v>0.0140543983493019</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02379591671636789</v>
+        <v>0.02062167910167564</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02715410761358491</v>
+        <v>0.02737353577171117</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02414566871537346</v>
+        <v>0.02698947576925102</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.02117900697552394</v>
+        <v>0.02057253089423427</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03686783334841478</v>
+        <v>0.03538737373370038</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02960380291496337</v>
+        <v>0.03024924886274351</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.005810016944844055</v>
+        <v>0.006693413581772455</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01340986164269797</v>
+        <v>0.01358152088988579</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02578687386892858</v>
+        <v>0.02505817394675924</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02026598149435271</v>
+        <v>0.02117711482538981</v>
       </c>
     </row>
     <row r="16">
@@ -1269,19 +1269,19 @@
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.02776210091557294</v>
+        <v>0.0279509780111742</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.0120900249656519</v>
+        <v>0.01266909274077704</v>
       </c>
       <c r="K18" s="5" t="inlineStr"/>
       <c r="L18" s="5" t="n">
-        <v>0.01243235333096766</v>
+        <v>0.01251047021100561</v>
       </c>
       <c r="M18" s="5" t="inlineStr"/>
       <c r="N18" s="5" t="n">
-        <v>0.006397874420733655</v>
+        <v>0.006445727013588497</v>
       </c>
     </row>
     <row r="19">
@@ -1317,7 +1317,7 @@
         <v>0.006630146581865244</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.0124807194515193</v>
+        <v>0.01248071945151929</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.004114800376353127</v>
@@ -1329,7 +1329,7 @@
         <v>0.003376844773941002</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.006159132967429183</v>
+        <v>0.006159132967429182</v>
       </c>
     </row>
     <row r="20">
@@ -1349,25 +1349,25 @@
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003446701310588999</v>
+        <v>0.003470712471039918</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.004395017181033928</v>
+        <v>0.003851370571058721</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.003586843771457642</v>
+        <v>0.003600616529599012</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.002155619580603435</v>
+        <v>0.002176081996746216</v>
       </c>
     </row>
     <row r="21">
@@ -1379,33 +1379,33 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.02786977268984329</v>
+        <v>0.02669116360658649</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.02693852916127733</v>
+        <v>0.0289203484447787</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03132057519018397</v>
+        <v>0.03159287511338906</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02213426804607416</v>
+        <v>0.02302387921033678</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03010486845512174</v>
+        <v>0.02773022584795883</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01415009707615444</v>
+        <v>0.01388262512343112</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02207135915183262</v>
+        <v>0.02182307788565957</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01190432233803379</v>
+        <v>0.01177360892705482</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.01351125165652308</v>
+        <v>0.01341322875609917</v>
       </c>
     </row>
     <row r="22">
@@ -1453,7 +1453,7 @@
         <v>0.00913688427232676</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.0183549455500728</v>
+        <v>0.01835494555007281</v>
       </c>
     </row>
     <row r="23">
@@ -1470,34 +1470,34 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.005146397870433215</v>
+        <v>0.004562594454548519</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.004613519115437888</v>
+        <v>0.004924502366237889</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.001361056081456619</v>
+        <v>0.001358249600285355</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.002456086418974289</v>
+        <v>0.001378887492601193</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01659207308407615</v>
+        <v>0.0176764492611481</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.000766557244826895</v>
+        <v>0.0007606967431385368</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.001433181616608348</v>
+        <v>0.001473171858355794</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.004585379777468705</v>
+        <v>0.004428301426730844</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01239271938956075</v>
+        <v>0.01302586555387292</v>
       </c>
     </row>
     <row r="24">
@@ -1508,40 +1508,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.007756569048513901</v>
+        <v>0.007742038264249049</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01187224874964824</v>
+        <v>0.01104856721201558</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0258392982599477</v>
+        <v>0.02443967244687379</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02006250951560317</v>
+        <v>0.01967175421012089</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0110911191836946</v>
+        <v>0.01112892172063325</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01205837524935085</v>
+        <v>0.01211989350865571</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01771937550599627</v>
+        <v>0.01853832168095639</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03756071156439215</v>
+        <v>0.03837858133611885</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.006217852077784049</v>
+        <v>0.006217927875888342</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.009388716549245906</v>
+        <v>0.008796763599715068</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01594632807247283</v>
+        <v>0.01573980729142423</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.02547466608694609</v>
+        <v>0.02619909489129591</v>
       </c>
     </row>
     <row r="25">
@@ -1589,7 +1589,7 @@
         <v>0.001797227078481976</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.007069252007265798</v>
+        <v>0.007069252007265799</v>
       </c>
     </row>
     <row r="26">
@@ -1603,33 +1603,33 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.001357291117361953</v>
+        <v>0.002439997272207452</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.001183472398698314</v>
+        <v>0.001187383618509104</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="5" t="inlineStr"/>
       <c r="H26" s="5" t="n">
-        <v>0.001177351564542264</v>
+        <v>0.00118157338749223</v>
       </c>
       <c r="I26" s="5" t="inlineStr"/>
       <c r="J26" s="5" t="n">
-        <v>0.006887503058064962</v>
+        <v>0.007065214777680303</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.00200834235793721</v>
+        <v>0.001980017675549708</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0005721217764121457</v>
+        <v>0.0005720737238654321</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.004012560174521113</v>
+        <v>0.00415815244620468</v>
       </c>
     </row>
     <row r="27">
@@ -1640,36 +1640,36 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.008094256980659048</v>
+        <v>0.009899284266312999</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0165974663689865</v>
+        <v>0.01706837899891804</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.009448345215457399</v>
+        <v>0.01098930566735303</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.007863509261242539</v>
+        <v>0.007946112119218252</v>
       </c>
       <c r="G27" s="5" t="inlineStr"/>
       <c r="H27" s="5" t="n">
-        <v>0.01004714640138025</v>
+        <v>0.01030209393575089</v>
       </c>
       <c r="I27" s="5" t="inlineStr"/>
       <c r="J27" s="5" t="n">
-        <v>0.01979081410282519</v>
+        <v>0.02082084187499121</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.004503235527891055</v>
+        <v>0.003929345273640124</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01059522581172044</v>
+        <v>0.01060633842376188</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.005092522587286314</v>
+        <v>0.005350385070319051</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.0116655071769534</v>
+        <v>0.01185527765298201</v>
       </c>
     </row>
     <row r="28">
@@ -1717,7 +1717,7 @@
         <v>0.006207119828624363</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.009948664285043259</v>
+        <v>0.009948664285043258</v>
       </c>
     </row>
     <row r="29">
@@ -1728,40 +1728,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0009018086375246601</v>
+        <v>0.0009036121130945999</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.002864599044714509</v>
+        <v>0.002882314616114902</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.00368093441509855</v>
+        <v>0.003689696133740569</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.004039313738757862</v>
+        <v>0.004111549209080002</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.000905580355833224</v>
+        <v>0.0008686253391720767</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.005050172306918727</v>
+        <v>0.004630095739267166</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.00406448118939227</v>
+        <v>0.004056982255793869</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.01043969809750193</v>
+        <v>0.01036646240382793</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.001212373015355025</v>
+        <v>0.001197630879632291</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.004259024313556153</v>
+        <v>0.004411718006102496</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.004457978384461964</v>
+        <v>0.004420041932431642</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.007928780696614585</v>
+        <v>0.008016949014347531</v>
       </c>
     </row>
     <row r="30">
@@ -1772,40 +1772,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.004664490144375697</v>
+        <v>0.004544747012059354</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.008499324451281992</v>
+        <v>0.008000877454570314</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.009334009483488831</v>
+        <v>0.009356272597566188</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.009954095389017668</v>
+        <v>0.01039810881097946</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.004261483939172141</v>
+        <v>0.004359932161711474</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.01109452818889031</v>
+        <v>0.01078745406469793</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.009811720797687943</v>
+        <v>0.009735420082463999</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.01675978863905721</v>
+        <v>0.01683789826747833</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.00366321851832855</v>
+        <v>0.003566588358439192</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.008368123077298928</v>
+        <v>0.008312600354813298</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.008199683479153071</v>
+        <v>0.008149538279380371</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.0124712331730878</v>
+        <v>0.01259300510428923</v>
       </c>
     </row>
     <row r="31">
@@ -2093,22 +2093,22 @@
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>3302</v>
+        <v>3143</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4457</v>
+        <v>4847</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>735</v>
@@ -2122,38 +2122,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8454</v>
+        <v>8365</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5245</v>
+        <v>5367</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4964</v>
+        <v>5015</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5087</v>
+        <v>4275</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>17574</v>
+        <v>15727</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10615</v>
+        <v>9638</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5675</v>
+        <v>4933</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8993</v>
+        <v>8458</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>19861</v>
+        <v>20077</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>11139</v>
+        <v>11430</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>6829</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="8">
@@ -2262,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2268</v>
+        <v>2238</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
@@ -2277,19 +2277,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2552</v>
+        <v>2353</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2075</v>
+        <v>2079</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6388</v>
+        <v>6391</v>
       </c>
     </row>
     <row r="11">
@@ -2300,40 +2300,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5361</v>
+        <v>5232</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13241</v>
+        <v>12971</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10142</v>
+        <v>9440</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>19416</v>
+        <v>19760</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8725</v>
+        <v>9590</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6010</v>
+        <v>6998</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6277</v>
+        <v>5613</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>9793</v>
+        <v>9805</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>10728</v>
+        <v>10841</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>11752</v>
+        <v>12862</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>11684</v>
+        <v>11633</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>23248</v>
+        <v>22375</v>
       </c>
     </row>
     <row r="12">
@@ -2443,29 +2443,29 @@
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1741</v>
+        <v>1826</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1844</v>
+        <v>1757</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2909</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="15">
@@ -2476,36 +2476,36 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5184</v>
+        <v>5098</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6165</v>
+        <v>5088</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>7430</v>
+        <v>8727</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>6500</v>
+        <v>6435</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10778</v>
+        <v>10147</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7076</v>
+        <v>6861</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4454</v>
+        <v>4424</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>9318</v>
+        <v>9301</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10535</v>
+        <v>10206</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>11656</v>
+        <v>11580</v>
       </c>
     </row>
     <row r="16">
@@ -2614,32 +2614,32 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1767</v>
+        <v>1782</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2990</v>
+        <v>3013</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1657</v>
+        <v>1711</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1158</v>
+        <v>1131</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6397</v>
+        <v>5807</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3621</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="19">
@@ -2650,38 +2650,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4496</v>
+        <v>5041</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8899</v>
+        <v>7712</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10046</v>
+        <v>10127</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9010</v>
+        <v>10071</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>8238</v>
+        <v>8002</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>14278</v>
+        <v>13705</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12492</v>
+        <v>12764</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4242</v>
+        <v>4887</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>10231</v>
+        <v>10362</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>19527</v>
+        <v>18975</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>16114</v>
+        <v>16838</v>
       </c>
     </row>
     <row r="20">
@@ -2817,19 +2817,19 @@
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>6096</v>
+        <v>6138</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>2768</v>
+        <v>2900</v>
       </c>
       <c r="K23" s="6" t="inlineStr"/>
       <c r="L23" s="6" t="n">
-        <v>5373</v>
+        <v>5407</v>
       </c>
       <c r="M23" s="6" t="inlineStr"/>
       <c r="N23" s="6" t="n">
-        <v>2780</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="24">
@@ -2941,25 +2941,25 @@
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1159</v>
+        <v>1016</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>1987</v>
+        <v>1995</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>1152</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="27">
@@ -2971,33 +2971,33 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>7636</v>
+        <v>7313</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>7493</v>
+        <v>8044</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8771</v>
+        <v>8847</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>6045</v>
+        <v>6288</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>7940</v>
+        <v>7314</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7768</v>
+        <v>7621</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>12228</v>
+        <v>12090</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>6384</v>
+        <v>6313</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>7221</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="28">
@@ -3106,34 +3106,34 @@
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3379</v>
+        <v>2996</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3320</v>
+        <v>3544</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1698</v>
+        <v>953</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>12810</v>
+        <v>13647</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1944</v>
+        <v>1999</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>6180</v>
+        <v>5969</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>18487</v>
+        <v>19431</v>
       </c>
     </row>
     <row r="31">
@@ -3144,40 +3144,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4770</v>
+        <v>4762</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>7869</v>
+        <v>7323</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>16965</v>
+        <v>16046</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>14439</v>
+        <v>14158</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>7079</v>
+        <v>7103</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>8367</v>
+        <v>8409</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>12249</v>
+        <v>12815</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>28999</v>
+        <v>29630</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>7792</v>
+        <v>7793</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>12737</v>
+        <v>11934</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>21493</v>
+        <v>21215</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>38002</v>
+        <v>39082</v>
       </c>
     </row>
     <row r="32">
@@ -3283,33 +3283,33 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1057</v>
+        <v>1901</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="F34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="6" t="inlineStr"/>
       <c r="H34" s="6" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="I34" s="6" t="inlineStr"/>
       <c r="J34" s="6" t="n">
-        <v>5726</v>
+        <v>5874</v>
       </c>
       <c r="K34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>3219</v>
+        <v>3174</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>918</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>6538</v>
+        <v>6775</v>
       </c>
     </row>
     <row r="35">
@@ -3320,36 +3320,36 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>6020</v>
+        <v>7363</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>12931</v>
+        <v>13298</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>7356</v>
+        <v>8556</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>6276</v>
+        <v>6342</v>
       </c>
       <c r="G35" s="6" t="inlineStr"/>
       <c r="H35" s="6" t="n">
-        <v>8277</v>
+        <v>8487</v>
       </c>
       <c r="I35" s="6" t="inlineStr"/>
       <c r="J35" s="6" t="n">
-        <v>16453</v>
+        <v>17309</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>6878</v>
+        <v>6001</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>16984</v>
+        <v>17001</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>8172</v>
+        <v>8586</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>19008</v>
+        <v>19317</v>
       </c>
     </row>
     <row r="36">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2955</v>
+        <v>2961</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>9816</v>
+        <v>9877</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>12494</v>
+        <v>12524</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>14270</v>
+        <v>14525</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>3060</v>
+        <v>2935</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>17970</v>
+        <v>16475</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>14407</v>
+        <v>14380</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>39013</v>
+        <v>38739</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>8069</v>
+        <v>7971</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>29750</v>
+        <v>30816</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>30933</v>
+        <v>30670</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>57640</v>
+        <v>58281</v>
       </c>
     </row>
     <row r="39">
@@ -3496,40 +3496,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>15283</v>
+        <v>14891</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>29125</v>
+        <v>27417</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>31683</v>
+        <v>31758</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>35165</v>
+        <v>36734</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>14400</v>
+        <v>14733</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>39478</v>
+        <v>38385</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>34778</v>
+        <v>34508</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>62631</v>
+        <v>62922</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>24381</v>
+        <v>23738</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>58452</v>
+        <v>58064</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>56897</v>
+        <v>56549</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>90662</v>
+        <v>91548</v>
       </c>
     </row>
     <row r="40">
